--- a/PROYECTO MR/HU_GE.ET.004 Ordenar SUCE/Revision de Pares - CheckList-HU_GE.ET.004 Ordenar SUCE.xlsx
+++ b/PROYECTO MR/HU_GE.ET.004 Ordenar SUCE/Revision de Pares - CheckList-HU_GE.ET.004 Ordenar SUCE.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="28925"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="25831"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\VUCE\DocumentoVuce\PROYECTO MR\HU_GE.ET.004 Ordenar SUCE\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Documentacion VUCE\DocumentoVuce\PROYECTO MR\HU_GE.ET.004 Ordenar SUCE\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C07F260A-690D-4C84-A73B-0C47F3B0EFBB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D17537C5-62DF-4026-B6BC-45178CE43A91}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
@@ -28,7 +28,6 @@
         <xcalcf:feature name="microsoft.com:CNMTM"/>
         <xcalcf:feature name="microsoft.com:LET_WF"/>
         <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
-        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
       </xcalcf:calcFeatures>
     </ext>
   </extLst>
@@ -36,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="35" uniqueCount="35">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="51" uniqueCount="50">
   <si>
     <t>Resultado esperado en PPS e IPS</t>
   </si>
@@ -265,7 +264,425 @@
         <rFont val="Arial"/>
         <family val="2"/>
       </rPr>
-      <t xml:space="preserve"> para los casos 1,2,4,5,6,7 .  Por todos los pasos se ven alineados al pie de la letra de manera EXITOSA</t>
+      <t xml:space="preserve"> para los casos 1,2,4,5,6,7 .  Por todos los pasos se ven alineados al pie de la letra de manera </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="16"/>
+        <color rgb="FF00B050"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>EXITOSA</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="16"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">
+Se validó las cantidades de casos PPS vs las cantidades del IPS, se valido que corresponden las cantidades de manera </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="16"/>
+        <color rgb="FF00B050"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>EXITOSA</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="16"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">Se validó los estados de casos PPS vs los estados del IPS, se valido que est+an homologadas de manera </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="16"/>
+        <color rgb="FF00B050"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>EXITOSA</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="16"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">Se validó los nombres de los casos de prueba están redactados con verbos infinitivos de manera </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="16"/>
+        <color rgb="FF00B050"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">EXITOSA
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="16"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">Se validó los propositos de los casos de prueba están redactados con verbos infinitivos de manera </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="16"/>
+        <color rgb="FF00B050"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>EXITOSA</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="16"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">Se validó los pasos son redactados como aciones / evento que aplica sobre el sistema de manera </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="16"/>
+        <color rgb="FF00B050"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>EXITOSA</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="16"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">Se validó los resultados esperados como respuesta del sistema en base al evento, como efecto, resultado, reacción del sistema de manera </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="16"/>
+        <color rgb="FF00B050"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>EXITOSA</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="16"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">Se validó en el IPS que las evidencias de ser necesarios son condensados con más de 1 paso en una sola imagen, se adjunta un grupo de muestra como evidencia, confirmando que la agrupación ha sido aplicada de manera </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="16"/>
+        <color rgb="FF00B050"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>EXITOSA</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="16"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">No se halló casos de diferentes a "Conforme", por lo tanto esta obseración </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="16"/>
+        <color rgb="FF00B050"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>NO APLICA</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="16"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">Para esta revisión se está considerando "La disponibilidad del sistema" como pre-requisito, no se muestra dependencia con otra HU o caso de prueba que tenga dependencia para ejecutar el caso de prueba actual, por lo tanto este item se considera como </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="16"/>
+        <color rgb="FF00B050"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>NO APLICA</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="16"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">No se halló casos de diferentes a "Conforme", por lo tanto esta observación </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="16"/>
+        <color rgb="FF00B050"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>NO APLICA</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="16"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">Para esta revisión se valida que el propietado de la HU (QA), es la misma persona desde la concepción del analisis hasta la ejecución y cierre de la atención, por ende este item se cierra de manera </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="16"/>
+        <color rgb="FF00B050"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>EXITOSA</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="16"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">De acuerdo a los historiales revisados, la ultima ejecución fue el dia 17/07 cerrando todos los casos cerrados, y no requerie una regresión, debido a está alineado a la ultima versión de HU y no presenta incidencias en estado Pendiente o Solucionado, por ende la regresión hasta la fecha de este reporte como </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="16"/>
+        <color rgb="FF00B050"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>NO APLICA</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="16"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">Se validó en el IPS y PPS que las ejecuciones están alineadas al HU de version 3, tal como se muestra en el listado de versiones y en el repositorio de la HU donde se halla la ultima versión v3, cerrando este IP de manera </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="16"/>
+        <color theme="9" tint="-0.249977111117893"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>EXITOSA</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="16"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">Para esta revisión se está considerando "La disponibilidad del sistema" como pre-requisito, para el proceso de logeo, está mapeado dentro de los pasos, es decir no requiere ser mencionado en pre-condiciones, sin embargo al revisar los casos a un 2do nivel, se </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="16"/>
+        <color rgb="FFFFC000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>RECOMIENDA</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="16"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> que debe incluir el registro a utilizar previamente debe ser creado (Solicitud TUPA previamente generada, que dicha solicitud debe estar pagada, solicitud con suce y expediente creado, Casos previos que se requieres para consumir la información.</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="16"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">Se validó en el IPS que las se dieron todas las ejecuciones en una HU actualizada de manera </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="16"/>
+        <color theme="9" tint="-0.249977111117893"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>EXITOSA</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="16"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">Se validó en el IPS se confirma lo siguiente:
+-Nombres de Caso de prueba presente
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="16"/>
+        <color theme="9" tint="-0.249977111117893"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">EXITOSA
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="16"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>-Pasos de ejecución agrupados (de ser posible)</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="16"/>
+        <color theme="9" tint="-0.249977111117893"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">
+EXITOSA
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="16"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>-Resultado esperado redactadado</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="16"/>
+        <color theme="9" tint="-0.249977111117893"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">
+EXITOSA
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="16"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>-Pantallas incensarios (relacionado al punto 2)</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="16"/>
+        <color theme="9" tint="-0.249977111117893"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">
+EXITOSA</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="16"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">Se identificó el correo de entrega de los artefactos PPS e IPS (en sus distintas iteraciones), por parte de la persona encargada de la atención de la HU, tanto en ejecución y estandarización de manera </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="16"/>
+        <color theme="9" tint="-0.249977111117893"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>EXITOSA</t>
     </r>
   </si>
 </sst>
@@ -273,7 +690,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="14" x14ac:knownFonts="1">
+  <fonts count="16" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -365,6 +782,20 @@
       <name val="Arial"/>
       <family val="2"/>
     </font>
+    <font>
+      <b/>
+      <sz val="16"/>
+      <color rgb="FF00B050"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="16"/>
+      <color rgb="FFFFC000"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
   </fonts>
   <fills count="3">
     <fill>
@@ -380,7 +811,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="19">
+  <borders count="15">
     <border>
       <left/>
       <right/>
@@ -564,61 +995,11 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left/>
-      <right style="medium">
-        <color indexed="64"/>
-      </right>
-      <top style="medium">
-        <color indexed="64"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="medium">
-        <color indexed="64"/>
-      </right>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom style="medium">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="medium">
-        <color indexed="64"/>
-      </right>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="medium">
-        <color indexed="64"/>
-      </right>
-      <top/>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="37">
+  <cellXfs count="33">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -635,15 +1016,6 @@
     <xf numFmtId="0" fontId="2" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -651,24 +1023,6 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -695,15 +1049,38 @@
     <xf numFmtId="0" fontId="8" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -869,9 +1246,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>4</xdr:col>
-      <xdr:colOff>8087590</xdr:colOff>
+      <xdr:colOff>6500812</xdr:colOff>
       <xdr:row>4</xdr:row>
-      <xdr:rowOff>4344653</xdr:rowOff>
+      <xdr:rowOff>3504350</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -894,8 +1271,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="11053329" y="5937971"/>
-          <a:ext cx="7979352" cy="4225591"/>
+          <a:off x="11085801" y="5905500"/>
+          <a:ext cx="6392574" cy="3385288"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -907,15 +1284,15 @@
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
       <xdr:col>4</xdr:col>
-      <xdr:colOff>7533410</xdr:colOff>
+      <xdr:colOff>1627911</xdr:colOff>
       <xdr:row>4</xdr:row>
-      <xdr:rowOff>138545</xdr:rowOff>
+      <xdr:rowOff>1472045</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>4</xdr:col>
-      <xdr:colOff>16976473</xdr:colOff>
+      <xdr:colOff>8951944</xdr:colOff>
       <xdr:row>4</xdr:row>
-      <xdr:rowOff>4350310</xdr:rowOff>
+      <xdr:rowOff>4738687</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -938,8 +1315,1132 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="18478501" y="5957454"/>
-          <a:ext cx="9443063" cy="4211765"/>
+          <a:off x="12605474" y="7258483"/>
+          <a:ext cx="7324033" cy="3266642"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>8953983</xdr:colOff>
+      <xdr:row>4</xdr:row>
+      <xdr:rowOff>190500</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>16928400</xdr:colOff>
+      <xdr:row>4</xdr:row>
+      <xdr:rowOff>4476749</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="4" name="Imagen 3">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{7C408117-1098-DD28-DC29-AE2E973DE947}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId6"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="19931546" y="5976938"/>
+          <a:ext cx="7974417" cy="4286249"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>5</xdr:row>
+      <xdr:rowOff>1</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>8983686</xdr:colOff>
+      <xdr:row>5</xdr:row>
+      <xdr:rowOff>4762501</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="5" name="Imagen 4">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E18A38A0-1CB9-CCE2-B103-D47184735D2D}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId7"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="10977563" y="10858501"/>
+          <a:ext cx="8983686" cy="4762500"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>8120062</xdr:colOff>
+      <xdr:row>6</xdr:row>
+      <xdr:rowOff>142877</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>16930685</xdr:colOff>
+      <xdr:row>6</xdr:row>
+      <xdr:rowOff>4764386</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="9" name="Imagen 8">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F628E719-DC49-2061-8E2A-706DEEA2FA51}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId8"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="19097625" y="16073440"/>
+          <a:ext cx="8810623" cy="4621509"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>6</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>9215437</xdr:colOff>
+      <xdr:row>6</xdr:row>
+      <xdr:rowOff>4896001</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="10" name="Imagen 9">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A5719EBF-CF36-A9AB-DB86-C8A1612AD03E}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId9"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="10977563" y="15930563"/>
+          <a:ext cx="9215437" cy="4896001"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>95250</xdr:colOff>
+      <xdr:row>7</xdr:row>
+      <xdr:rowOff>166688</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>11257470</xdr:colOff>
+      <xdr:row>7</xdr:row>
+      <xdr:rowOff>4881563</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="11" name="Imagen 10">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{BC5D536B-F94C-95CA-2800-DFAF606683E3}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId10"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="11072813" y="21169313"/>
+          <a:ext cx="11162220" cy="4714875"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>8</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>9405937</xdr:colOff>
+      <xdr:row>8</xdr:row>
+      <xdr:rowOff>4934999</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="12" name="Imagen 11">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{24E83AB8-3EFE-8A12-B4C0-3EB24E8D00AC}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId11"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="10977563" y="26074688"/>
+          <a:ext cx="9405937" cy="4934999"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>266700</xdr:colOff>
+      <xdr:row>9</xdr:row>
+      <xdr:rowOff>304801</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>5719724</xdr:colOff>
+      <xdr:row>9</xdr:row>
+      <xdr:rowOff>4838701</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="13" name="Imagen 12">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{3E5834BF-620C-5F09-0FA5-FDDDE87EC18A}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId12"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="11239500" y="31432501"/>
+          <a:ext cx="5453024" cy="4533900"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>5791200</xdr:colOff>
+      <xdr:row>9</xdr:row>
+      <xdr:rowOff>276227</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>11367164</xdr:colOff>
+      <xdr:row>9</xdr:row>
+      <xdr:rowOff>4762501</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="14" name="Imagen 13">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{B53BC629-5BCF-8EE8-9436-61F3F4922FCA}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId13"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="16768763" y="31422977"/>
+          <a:ext cx="5575964" cy="4486274"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>11396663</xdr:colOff>
+      <xdr:row>9</xdr:row>
+      <xdr:rowOff>290514</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>16875725</xdr:colOff>
+      <xdr:row>9</xdr:row>
+      <xdr:rowOff>4738688</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="15" name="Imagen 14">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{4969DFF7-33AA-9682-F976-20B2919E22A7}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId14"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="22374226" y="31437264"/>
+          <a:ext cx="5479062" cy="4448174"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>266700</xdr:colOff>
+      <xdr:row>10</xdr:row>
+      <xdr:rowOff>304801</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="5453024" cy="4533900"/>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="16" name="Imagen 15">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{BAC943C0-216B-401D-BCA0-E762D756A1B6}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId12"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="11244263" y="31451551"/>
+          <a:ext cx="5453024" cy="4533900"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>5791200</xdr:colOff>
+      <xdr:row>10</xdr:row>
+      <xdr:rowOff>276227</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="5575964" cy="4486274"/>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="17" name="Imagen 16">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D2AA1FD3-05CE-40AE-B701-4E79800AACF5}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId13"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="16768763" y="31422977"/>
+          <a:ext cx="5575964" cy="4486274"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>11396663</xdr:colOff>
+      <xdr:row>10</xdr:row>
+      <xdr:rowOff>290514</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="5479062" cy="4448174"/>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="18" name="Imagen 17">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{61AFF6EE-EE0E-4F57-924A-70F086088DD3}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId14"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="22374226" y="31437264"/>
+          <a:ext cx="5479062" cy="4448174"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>166687</xdr:colOff>
+      <xdr:row>11</xdr:row>
+      <xdr:rowOff>71437</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>9150373</xdr:colOff>
+      <xdr:row>11</xdr:row>
+      <xdr:rowOff>4833937</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="19" name="Imagen 18">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{4C4BAF03-D874-4093-9808-0634A7226E0E}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId7"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="11144250" y="41362312"/>
+          <a:ext cx="8983686" cy="4762500"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>166687</xdr:colOff>
+      <xdr:row>12</xdr:row>
+      <xdr:rowOff>71437</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="8983686" cy="4762500"/>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="20" name="Imagen 19">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{B7FE05ED-217A-48A7-B7B1-AB724343A888}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId7"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="11144250" y="41362312"/>
+          <a:ext cx="8983686" cy="4762500"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>13</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>8096249</xdr:colOff>
+      <xdr:row>13</xdr:row>
+      <xdr:rowOff>4833289</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="21" name="Imagen 20">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C4E6A55E-BF39-714D-2D12-78518CA71D32}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId15"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="10977563" y="51435000"/>
+          <a:ext cx="8096249" cy="4833289"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>14</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>8096249</xdr:colOff>
+      <xdr:row>14</xdr:row>
+      <xdr:rowOff>4833289</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="22" name="Imagen 21">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6702528B-E191-4049-98A8-DE2FDFD2E14B}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId15"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="10977563" y="56507063"/>
+          <a:ext cx="8096249" cy="4833289"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>15</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>12572999</xdr:colOff>
+      <xdr:row>15</xdr:row>
+      <xdr:rowOff>4905400</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="23" name="Imagen 22">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{7D5F508A-083D-3F6F-28B9-6FABA84D3041}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId16"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="10977563" y="61579125"/>
+          <a:ext cx="12572999" cy="4905400"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>1638300</xdr:colOff>
+      <xdr:row>16</xdr:row>
+      <xdr:rowOff>152400</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>14401800</xdr:colOff>
+      <xdr:row>17</xdr:row>
+      <xdr:rowOff>5764</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="24" name="Imagen 23">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{4833A885-F79E-1999-392C-450B8818B633}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId17"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="12611100" y="66751200"/>
+          <a:ext cx="12763500" cy="4920664"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>7795357</xdr:colOff>
+      <xdr:row>17</xdr:row>
+      <xdr:rowOff>3143250</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>16811262</xdr:colOff>
+      <xdr:row>17</xdr:row>
+      <xdr:rowOff>4857750</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="27" name="Imagen 26">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{EBEFA4D0-C8BC-47F7-3D91-7BC22EF6B99B}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId18"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="18772920" y="74866500"/>
+          <a:ext cx="9015905" cy="1714500"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>8122227</xdr:colOff>
+      <xdr:row>17</xdr:row>
+      <xdr:rowOff>138546</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>16860725</xdr:colOff>
+      <xdr:row>17</xdr:row>
+      <xdr:rowOff>3891560</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="28" name="Imagen 27">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{1095BBD8-A1C8-2207-CDCF-A0AC647B2DEC}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId19"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="19067318" y="71922410"/>
+          <a:ext cx="8738498" cy="3753014"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>155863</xdr:colOff>
+      <xdr:row>17</xdr:row>
+      <xdr:rowOff>103909</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>7983681</xdr:colOff>
+      <xdr:row>17</xdr:row>
+      <xdr:rowOff>3125987</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="29" name="Imagen 28">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{491AC2B0-EB19-4023-AB2B-D0B4754B7A94}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId17"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="11100954" y="71887773"/>
+          <a:ext cx="7827818" cy="3022078"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>5524500</xdr:colOff>
+      <xdr:row>18</xdr:row>
+      <xdr:rowOff>119062</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>11787187</xdr:colOff>
+      <xdr:row>18</xdr:row>
+      <xdr:rowOff>4937629</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="30" name="Imagen 29">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{1381D98A-2064-33D8-50CA-47CB15459C0D}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId20"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="16502063" y="76914375"/>
+          <a:ext cx="6262687" cy="4818567"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>238125</xdr:colOff>
+      <xdr:row>19</xdr:row>
+      <xdr:rowOff>166689</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>5860401</xdr:colOff>
+      <xdr:row>19</xdr:row>
+      <xdr:rowOff>4857751</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="25" name="Imagen 24">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{85D4ED03-22B7-D685-535D-20277B9129B3}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId21"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="11215688" y="82034064"/>
+          <a:ext cx="5622276" cy="4691062"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>6523026</xdr:colOff>
+      <xdr:row>19</xdr:row>
+      <xdr:rowOff>142876</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>13009523</xdr:colOff>
+      <xdr:row>19</xdr:row>
+      <xdr:rowOff>5000626</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="26" name="Imagen 25">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A59FBFEB-F04A-39BC-B8D3-7615AE2CA8DB}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId22"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="17500589" y="82010251"/>
+          <a:ext cx="6486497" cy="4857750"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>7256318</xdr:colOff>
+      <xdr:row>20</xdr:row>
+      <xdr:rowOff>155865</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>16867500</xdr:colOff>
+      <xdr:row>20</xdr:row>
+      <xdr:rowOff>3763423</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="31" name="Imagen 30">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{71046EB5-80F5-209A-8793-871B1A81E61E}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId23"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="18201409" y="87162410"/>
+          <a:ext cx="9611182" cy="3607558"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>34637</xdr:colOff>
+      <xdr:row>20</xdr:row>
+      <xdr:rowOff>225138</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>7290955</xdr:colOff>
+      <xdr:row>20</xdr:row>
+      <xdr:rowOff>3466746</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="32" name="Imagen 31">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D2E48A29-0B1A-9522-F803-25F1541B60A5}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId24"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="10979728" y="87231683"/>
+          <a:ext cx="7256318" cy="3241608"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1216,8 +2717,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="B2:I21"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C4" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
-      <selection activeCell="E6" sqref="E6"/>
+    <sheetView tabSelected="1" topLeftCell="B1" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
+      <selection activeCell="F5" sqref="F5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1254,14 +2755,14 @@
       <c r="B4" s="6">
         <v>1</v>
       </c>
-      <c r="C4" s="13" t="s">
+      <c r="C4" s="10" t="s">
         <v>0</v>
       </c>
-      <c r="D4" s="22" t="s">
+      <c r="D4" s="13" t="s">
         <v>22</v>
       </c>
-      <c r="E4" s="32"/>
-      <c r="F4" s="12" t="s">
+      <c r="E4" s="19"/>
+      <c r="F4" s="9" t="s">
         <v>33</v>
       </c>
       <c r="G4" s="1"/>
@@ -1269,17 +2770,17 @@
       <c r="I4" s="1"/>
     </row>
     <row r="5" spans="2:9" ht="399.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B5" s="10">
+      <c r="B5" s="26">
         <v>2</v>
       </c>
-      <c r="C5" s="14" t="s">
+      <c r="C5" s="27" t="s">
         <v>1</v>
       </c>
-      <c r="D5" s="23" t="s">
+      <c r="D5" s="14" t="s">
         <v>23</v>
       </c>
-      <c r="E5" s="33"/>
-      <c r="F5" s="12" t="s">
+      <c r="E5" s="20"/>
+      <c r="F5" s="9" t="s">
         <v>34</v>
       </c>
       <c r="G5" s="1"/>
@@ -1287,236 +2788,263 @@
       <c r="I5" s="1"/>
     </row>
     <row r="6" spans="2:9" ht="399.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B6" s="11"/>
-      <c r="C6" s="15"/>
-      <c r="D6" s="24" t="s">
+      <c r="B6" s="29"/>
+      <c r="C6" s="28"/>
+      <c r="D6" s="15" t="s">
         <v>2</v>
       </c>
-      <c r="E6" s="34"/>
-      <c r="F6" s="29"/>
+      <c r="E6" s="21"/>
+      <c r="F6" s="9" t="s">
+        <v>35</v>
+      </c>
       <c r="G6" s="1"/>
       <c r="H6" s="1"/>
       <c r="I6" s="1"/>
     </row>
-    <row r="7" spans="2:9" ht="399.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B7" s="10">
+    <row r="7" spans="2:9" ht="399.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B7" s="26">
         <v>3</v>
       </c>
-      <c r="C7" s="14" t="s">
+      <c r="C7" s="27" t="s">
         <v>3</v>
       </c>
-      <c r="D7" s="23" t="s">
+      <c r="D7" s="14" t="s">
         <v>24</v>
       </c>
-      <c r="E7" s="33"/>
-      <c r="F7" s="28"/>
+      <c r="E7" s="20"/>
+      <c r="F7" s="9" t="s">
+        <v>36</v>
+      </c>
       <c r="G7" s="1"/>
       <c r="H7" s="1"/>
       <c r="I7" s="1"/>
     </row>
-    <row r="8" spans="2:9" ht="399.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B8" s="8"/>
-      <c r="C8" s="16"/>
-      <c r="D8" s="25" t="s">
+    <row r="8" spans="2:9" ht="399.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B8" s="25"/>
+      <c r="C8" s="24"/>
+      <c r="D8" s="16" t="s">
         <v>32</v>
       </c>
-      <c r="E8" s="35"/>
-      <c r="F8" s="30"/>
+      <c r="E8" s="22"/>
+      <c r="F8" s="9" t="s">
+        <v>37</v>
+      </c>
       <c r="G8" s="1"/>
       <c r="H8" s="1"/>
       <c r="I8" s="1"/>
     </row>
     <row r="9" spans="2:9" ht="399.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B9" s="11"/>
-      <c r="C9" s="15"/>
-      <c r="D9" s="24" t="s">
+      <c r="B9" s="29"/>
+      <c r="C9" s="28"/>
+      <c r="D9" s="15" t="s">
         <v>25</v>
       </c>
-      <c r="E9" s="34"/>
-      <c r="F9" s="29"/>
+      <c r="E9" s="21"/>
+      <c r="F9" s="9" t="s">
+        <v>38</v>
+      </c>
       <c r="G9" s="1"/>
       <c r="H9" s="1"/>
       <c r="I9" s="1"/>
     </row>
-    <row r="10" spans="2:9" ht="399.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B10" s="10">
+    <row r="10" spans="2:9" ht="399.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B10" s="26">
         <v>4</v>
       </c>
-      <c r="C10" s="17" t="s">
+      <c r="C10" s="30" t="s">
         <v>4</v>
       </c>
-      <c r="D10" s="23" t="s">
+      <c r="D10" s="14" t="s">
         <v>26</v>
       </c>
-      <c r="E10" s="33"/>
-      <c r="F10" s="28"/>
+      <c r="E10" s="20"/>
+      <c r="F10" s="9" t="s">
+        <v>39</v>
+      </c>
       <c r="G10" s="1"/>
       <c r="H10" s="1"/>
       <c r="I10" s="1"/>
     </row>
     <row r="11" spans="2:9" ht="399.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B11" s="11"/>
-      <c r="C11" s="18"/>
-      <c r="D11" s="24" t="s">
+      <c r="B11" s="29"/>
+      <c r="C11" s="31"/>
+      <c r="D11" s="15" t="s">
         <v>27</v>
       </c>
-      <c r="E11" s="34"/>
-      <c r="F11" s="29"/>
+      <c r="E11" s="20"/>
+      <c r="F11" s="9" t="s">
+        <v>39</v>
+      </c>
       <c r="G11" s="1"/>
       <c r="H11" s="1"/>
       <c r="I11" s="1"/>
     </row>
-    <row r="12" spans="2:9" ht="399.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B12" s="10">
+    <row r="12" spans="2:9" ht="399.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B12" s="26">
         <v>5</v>
       </c>
-      <c r="C12" s="19" t="s">
+      <c r="C12" s="32" t="s">
         <v>5</v>
       </c>
-      <c r="D12" s="26" t="s">
+      <c r="D12" s="17" t="s">
         <v>28</v>
       </c>
-      <c r="E12" s="36"/>
-      <c r="F12" s="31"/>
+      <c r="E12" s="23"/>
+      <c r="F12" s="9" t="s">
+        <v>40</v>
+      </c>
       <c r="G12" s="1"/>
       <c r="H12" s="1"/>
       <c r="I12" s="1"/>
     </row>
-    <row r="13" spans="2:9" ht="399.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B13" s="8"/>
-      <c r="C13" s="16"/>
-      <c r="D13" s="25" t="s">
+    <row r="13" spans="2:9" ht="399.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B13" s="25"/>
+      <c r="C13" s="24"/>
+      <c r="D13" s="16" t="s">
         <v>6</v>
       </c>
-      <c r="E13" s="35"/>
-      <c r="F13" s="30"/>
+      <c r="E13" s="23"/>
+      <c r="F13" s="9" t="s">
+        <v>42</v>
+      </c>
       <c r="G13" s="1"/>
       <c r="H13" s="1"/>
       <c r="I13" s="1"/>
     </row>
-    <row r="14" spans="2:9" ht="399.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B14" s="8">
+    <row r="14" spans="2:9" ht="399.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B14" s="25">
         <v>6</v>
       </c>
-      <c r="C14" s="16" t="s">
+      <c r="C14" s="24" t="s">
         <v>7</v>
       </c>
-      <c r="D14" s="25" t="s">
+      <c r="D14" s="16" t="s">
         <v>29</v>
       </c>
-      <c r="E14" s="35"/>
-      <c r="F14" s="30"/>
+      <c r="E14" s="22"/>
+      <c r="F14" s="9" t="s">
+        <v>46</v>
+      </c>
       <c r="G14" s="1"/>
       <c r="H14" s="1"/>
       <c r="I14" s="1"/>
     </row>
-    <row r="15" spans="2:9" ht="399.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B15" s="8"/>
-      <c r="C15" s="16"/>
-      <c r="D15" s="25" t="s">
+    <row r="15" spans="2:9" ht="399.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B15" s="25"/>
+      <c r="C15" s="24"/>
+      <c r="D15" s="16" t="s">
         <v>8</v>
       </c>
-      <c r="E15" s="35"/>
-      <c r="F15" s="30"/>
+      <c r="E15" s="22"/>
+      <c r="F15" s="9" t="s">
+        <v>41</v>
+      </c>
       <c r="G15" s="1"/>
       <c r="H15" s="1"/>
       <c r="I15" s="1"/>
     </row>
-    <row r="16" spans="2:9" ht="399.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B16" s="8">
+    <row r="16" spans="2:9" ht="399.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B16" s="25">
         <v>7</v>
       </c>
-      <c r="C16" s="16" t="s">
+      <c r="C16" s="24" t="s">
         <v>9</v>
       </c>
-      <c r="D16" s="25" t="s">
+      <c r="D16" s="16" t="s">
         <v>30</v>
       </c>
-      <c r="E16" s="35"/>
-      <c r="F16" s="30"/>
+      <c r="E16" s="22"/>
+      <c r="F16" s="9" t="s">
+        <v>43</v>
+      </c>
       <c r="G16" s="1"/>
       <c r="H16" s="1"/>
       <c r="I16" s="1"/>
     </row>
-    <row r="17" spans="2:9" ht="399.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B17" s="8"/>
-      <c r="C17" s="16"/>
-      <c r="D17" s="25" t="s">
+    <row r="17" spans="2:9" ht="399.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B17" s="25"/>
+      <c r="C17" s="24"/>
+      <c r="D17" s="16" t="s">
         <v>31</v>
       </c>
-      <c r="E17" s="35"/>
-      <c r="F17" s="30"/>
+      <c r="E17" s="22"/>
+      <c r="F17" s="9" t="s">
+        <v>44</v>
+      </c>
       <c r="G17" s="1"/>
       <c r="H17" s="1"/>
       <c r="I17" s="1"/>
     </row>
-    <row r="18" spans="2:9" ht="399.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B18" s="8">
+    <row r="18" spans="2:9" ht="399.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B18" s="25">
         <v>8</v>
       </c>
-      <c r="C18" s="16" t="s">
+      <c r="C18" s="24" t="s">
         <v>10</v>
       </c>
-      <c r="D18" s="25" t="s">
+      <c r="D18" s="16" t="s">
         <v>11</v>
       </c>
-      <c r="E18" s="35"/>
-      <c r="F18" s="30"/>
+      <c r="E18" s="22"/>
+      <c r="F18" s="9" t="s">
+        <v>45</v>
+      </c>
       <c r="G18" s="1"/>
       <c r="H18" s="1"/>
       <c r="I18" s="1"/>
     </row>
-    <row r="19" spans="2:9" ht="399.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B19" s="8"/>
-      <c r="C19" s="16"/>
-      <c r="D19" s="25" t="s">
+    <row r="19" spans="2:9" ht="399.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B19" s="25"/>
+      <c r="C19" s="24"/>
+      <c r="D19" s="16" t="s">
         <v>12</v>
       </c>
-      <c r="E19" s="35"/>
-      <c r="F19" s="30"/>
+      <c r="E19" s="22"/>
+      <c r="F19" s="9" t="s">
+        <v>47</v>
+      </c>
       <c r="G19" s="1"/>
       <c r="H19" s="1"/>
       <c r="I19" s="1"/>
     </row>
-    <row r="20" spans="2:9" ht="399.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="20" spans="2:9" ht="399.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B20" s="7">
         <v>9</v>
       </c>
-      <c r="C20" s="20" t="s">
+      <c r="C20" s="11" t="s">
         <v>13</v>
       </c>
-      <c r="D20" s="27" t="s">
+      <c r="D20" s="18" t="s">
         <v>14</v>
       </c>
-      <c r="E20" s="35"/>
-      <c r="F20" s="30"/>
+      <c r="E20" s="22"/>
+      <c r="F20" s="9" t="s">
+        <v>48</v>
+      </c>
       <c r="G20" s="1"/>
       <c r="H20" s="1"/>
       <c r="I20" s="1"/>
     </row>
     <row r="21" spans="2:9" ht="399.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B21" s="9">
+      <c r="B21" s="8">
         <v>10</v>
       </c>
-      <c r="C21" s="21" t="s">
+      <c r="C21" s="12" t="s">
         <v>15</v>
       </c>
-      <c r="D21" s="24" t="s">
+      <c r="D21" s="15" t="s">
         <v>16</v>
       </c>
-      <c r="E21" s="34"/>
-      <c r="F21" s="29"/>
+      <c r="E21" s="21"/>
+      <c r="F21" s="9" t="s">
+        <v>49</v>
+      </c>
       <c r="G21" s="1"/>
       <c r="H21" s="1"/>
       <c r="I21" s="1"/>
     </row>
   </sheetData>
   <mergeCells count="14">
-    <mergeCell ref="C12:C13"/>
-    <mergeCell ref="C16:C17"/>
-    <mergeCell ref="B16:B17"/>
-    <mergeCell ref="C14:C15"/>
-    <mergeCell ref="B14:B15"/>
     <mergeCell ref="C18:C19"/>
     <mergeCell ref="B18:B19"/>
     <mergeCell ref="B12:B13"/>
@@ -1526,8 +3054,14 @@
     <mergeCell ref="B7:B9"/>
     <mergeCell ref="C10:C11"/>
     <mergeCell ref="B10:B11"/>
+    <mergeCell ref="C12:C13"/>
+    <mergeCell ref="C16:C17"/>
+    <mergeCell ref="B16:B17"/>
+    <mergeCell ref="C14:C15"/>
+    <mergeCell ref="B14:B15"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <drawing r:id="rId1"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <drawing r:id="rId2"/>
 </worksheet>
 </file>